--- a/DateBase/orders/International Ever Green_2025-11-21.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-21.xlsx
@@ -949,6 +949,9 @@
       <c r="C61" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1010,7 +1013,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151585158168103152060301010151202093017201510101510302015202020101020335555355855551055555120</v>
+        <v>0151585158168103152060301010151202093017201510101510302015202020101020335555355855551055555125</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-21.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -953,9 +953,25 @@
         <v>5</v>
       </c>
     </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L63"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1013,7 +1029,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151585158168103152060301010151202093017201510101510302015202020101020335555355855551055555125</v>
+        <v>015158515816810315206030101015120209301720151010151030201520202010102033555535585555105555512555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-21.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-21.xlsx
@@ -1031,6 +1031,9 @@
       <c r="G2" t="str">
         <v>015158515816810315206030101015120209301720151010151030201520202010102033555535585555105555512555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
